--- a/output.xlsx
+++ b/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="xyz.jpg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="3.png" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,15 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clean Code</t>
+          <t>‘This work is licensed under the Creative Commons Attribution-NonCommercial-NoDerivs 2.0 Generic License. ‘To view a copy of this license, visit http: //creativeconmons.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Robert C. Martin</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>©2018 Richard §. Sutton and Andrew G. Barto</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>©2018 Richard §. Sutton and Andrew G. Barto, org/licenses/by-ne-nd/2.0/ or send a letter to Creative Commons, PO Box 1866,, Library of Congress Cataloging-in-Publication Data is available.</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
     </row>
   </sheetData>
